--- a/biology/Zoologie/Hinterwälder/Hinterwälder.xlsx
+++ b/biology/Zoologie/Hinterwälder/Hinterwälder.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hinterw%C3%A4lder</t>
+          <t>Hinterwälder</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Hinterwälder est une race bovine allemande
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hinterw%C3%A4lder</t>
+          <t>Hinterwälder</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle appartient au rameau pie rouge des montagnes. Elle est élevée dans le massif de la Forêt-Noire. Le registre généalogique date de 1889. Dans les années 1960, des croisements ont été faits avec la vordelwälder. C'est une race à effectif restreint : 700 vaches et 45 taureaux inscrits en 2004[1].
-Elle est inscrite à la liste des races menacées de la Gesellschaft zur Erhaltung alter und gefährdeter Haustierrassen[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle appartient au rameau pie rouge des montagnes. Elle est élevée dans le massif de la Forêt-Noire. Le registre généalogique date de 1889. Dans les années 1960, des croisements ont été faits avec la vordelwälder. C'est une race à effectif restreint : 700 vaches et 45 taureaux inscrits en 2004.
+Elle est inscrite à la liste des races menacées de la Gesellschaft zur Erhaltung alter und gefährdeter Haustierrassen.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hinterw%C3%A4lder</t>
+          <t>Hinterwälder</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle porte une robe pie rouge. Généralement, la tête est blanche. Ses muqueuses sont claires et ses cornes courtes en croissant. C'est une race de petit format: 120 à 125 cm au garrot pour 400 kg chez la vache et 130 à 135 cm pour 700 à 800 kg chez le taureau.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hinterw%C3%A4lder</t>
+          <t>Hinterwälder</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Aptitudes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est classée mixte. Elle produit 3 300 kg de lait par lactation, avec un taux butyreux de 4 % et un taux protéique de 3,4 %. Elle est reconnue pour ses qualités de fertilité, rusticité et longévité. C'est une race de montagne, apte à la marche et rustique pour passer l'été en plein air intégral.
 </t>
